--- a/calculation_data/calculations_220401.xlsx
+++ b/calculation_data/calculations_220401.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="empty" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -933,7 +934,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -951,32 +952,34 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>790095461r01</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>m5din125</t>
+          <t>60x10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>полоса</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -994,32 +997,34 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>790095462r02</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>m5din934</t>
+          <t>30x10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>полоса</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -1039,32 +1044,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>790095461r01</t>
+          <t>790572090r00p08</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>60x10</t>
+          <t>m6x10 приварна</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>полоса</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1084,7 +1089,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>790095462r02</t>
+          <t>790572090r00p13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1092,16 +1097,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30x10</t>
+          <t>d6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>полоса</t>
+          <t>круг</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1109,7 +1114,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -1129,32 +1134,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>790572090r00p08</t>
+          <t>RM12033_REV0_V3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>m6x10 приварна</t>
+          <t>l5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>20250</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="17">
@@ -1174,32 +1179,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>790572090r00p13</t>
+          <t>RM12034_REV0_V3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>d6</t>
+          <t>l1,5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>круг</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>241500</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>300</v>
+        <v>241500</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1224,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RM12033_REV0_V3</t>
+          <t>RM12035_REV0_V3</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1227,7 +1232,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>l5</t>
+          <t>l1,5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1236,7 +1241,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>20250</v>
+        <v>59800</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1244,7 +1249,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>20250</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="19">
@@ -1264,7 +1269,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RM12034_REV0_V3</t>
+          <t>RM12040_REV0_V3</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RM12035_REV0_V3</t>
+          <t>RM12041_REV0_V3</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1326,7 +1331,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>59800</v>
+        <v>2168400</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1334,7 +1339,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>59800</v>
+        <v>2168400</v>
       </c>
     </row>
     <row r="21">
@@ -1354,7 +1359,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RM12040_REV0_V3</t>
+          <t>RM12042_REV0_V3</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1371,7 +1376,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>241500</v>
+        <v>715400</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1379,27 +1384,29 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>241500</v>
+        <v>715400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>1500043430_5S5672043</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>617412</v>
-      </c>
-      <c r="C22" t="n">
-        <v>79057209013</v>
+        <v>1500043430</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5S5672043</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RM12041_REV0_V3</t>
+          <t>5S5672043</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,122 +1414,124 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>l1,5</t>
+          <t>d50f</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>круг</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2168400</v>
+        <v>50</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>мм^2</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>2168400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>2500045318_6-4651935</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>617412</v>
-      </c>
-      <c r="C23" t="n">
-        <v>79057209013</v>
+        <v>2500045318</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6-4651935</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RM12042_REV0_V3</t>
+          <t>V.TEIF A304-A2    M 8X 20 5739</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>l1,5</t>
+          <t>m8x20din933</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>715400</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>мм^2</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>715400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1500043430_5S5672043</t>
+          <t>_</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1500043430</v>
+        <v>2500045318</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5S5672043</t>
+          <t>6-4651935</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5S5672043</t>
+          <t>V.TEIF A304-A2    M10X 20 5739</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>d50f</t>
+          <t>m10x20din933</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>круг</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2500045318_6-4651935</t>
+          <t>_</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1538,15 +1547,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>V.TEIF A304-A2    M 8X 20 5739</t>
+          <t>V.TEIF A304-A2    M10X 25 5739</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>m8x20din933</t>
+          <t>m10x25din933</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1563,7 +1572,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1585,15 +1594,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>V.TEIF A304-A2    M10X 20 5739</t>
+          <t>DADO ALTO A304-A2    M10    5587</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>m10x20din933</t>
+          <t>m10din934</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1610,7 +1619,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1632,15 +1641,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>V.TEIF A304-A2    M10X 25 5739</t>
+          <t>DADO MEDIO A304-A2   M 8    5588</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>m10x25din933</t>
+          <t>m8din934</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1666,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1679,7 +1688,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DADO ALTO A304-A2    M10    5587</t>
+          <t>5-8505283p01</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1687,24 +1696,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m10din934</t>
+          <t>l3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>240000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="29">
@@ -1726,32 +1735,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DADO MEDIO A304-A2   M 8    5588</t>
+          <t>5-8505283p02</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m8din934</t>
+          <t>l3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>240000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="30">
@@ -1773,32 +1782,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5-8505283p01</t>
+          <t>5-8505283p03</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>l3</t>
+          <t>m8din125</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>240000</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>мм^2</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>240000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1820,32 +1829,32 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5-8505283p02</t>
+          <t>5-3770243</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>l3</t>
+          <t>d12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>круг</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>240000</v>
+        <v>2000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>мм^2</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>240000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32">
@@ -1865,34 +1874,32 @@
       <c r="D32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>5-8505283p03</t>
-        </is>
+      <c r="E32" t="n">
+        <v>5391270</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m8din125</t>
+          <t>d12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>круг</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33">
@@ -1912,34 +1919,32 @@
       <c r="D33" t="n">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>5-3770243</t>
-        </is>
+      <c r="E33" t="n">
+        <v>5114349</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>d12</t>
+          <t>l1,5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>круг</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="34">
@@ -1960,31 +1965,31 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>5391270</v>
+        <v>5552088</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>d12</t>
+          <t>l3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>круг</t>
+          <t>лист</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1200</v>
+        <v>13125</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>мм^2</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1200</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="35">
@@ -2004,124 +2009,103 @@
       <c r="D35" t="n">
         <v>1</v>
       </c>
-      <c r="E35" t="n">
-        <v>5114349</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5s5264977</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>2</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>l1,5</t>
+          <t>d40</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>круг</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>33000</v>
+        <v>25</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>мм^2</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2500045318</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6-4651935</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5552088</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>лист</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>13125</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>мм^2</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2500045318</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>6-4651935</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5s5264977</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>d40</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>круг</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>25</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>мм</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Without calculation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ord</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>det</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>609987</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79029364013</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>617416</v>
+      </c>
+      <c r="B4" t="n">
+        <v>79057776513</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/calculation_data/calculations_220401.xlsx
+++ b/calculation_data/calculations_220401.xlsx
@@ -53,6 +53,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00ffff00"/>
+          <bgColor rgb="00ffff00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -519,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -531,7 +541,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +664,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -666,7 +676,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>189200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -699,7 +709,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -711,7 +721,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1182500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -744,7 +754,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -756,7 +766,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>172575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -789,7 +799,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -801,7 +811,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>172575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +844,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -846,7 +856,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>25200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -879,7 +889,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -891,7 +901,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>66600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1157,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1159,7 +1169,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>20250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1202,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1204,7 +1214,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>241500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1237,7 +1247,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1249,7 +1259,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>59800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1282,7 +1292,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1294,7 +1304,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>241500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1327,7 +1337,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1339,7 +1349,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>2168400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1372,7 +1382,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>лист</t>
+          <t>halffabricat</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1384,7 +1394,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>715400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2040,6 +2050,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H10000">
+    <cfRule type="containsText" priority="1" operator="equal" dxfId="0" text="halffabricat"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/calculation_data/calculations_220401.xlsx
+++ b/calculation_data/calculations_220401.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
